--- a/чек лист.xlsx
+++ b/чек лист.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LordDeStar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LordDeStar\Desktop\ClownsProduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C4AE37-54B6-4FDD-85E0-B5A316E4722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DB1B0-76DD-45B0-A5E1-CCBB02E6C0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="1455" windowWidth="38700" windowHeight="18915" tabRatio="398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2085" windowWidth="38700" windowHeight="18915" tabRatio="398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>№ Тест-кейса</t>
   </si>
@@ -76,18 +76,35 @@
   </si>
   <si>
     <t xml:space="preserve">Тестирование удаления пользователя без задач </t>
+  </si>
+  <si>
+    <t>Test6_DeletingUserWithIncorrectInput()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестирование удаления несуществующего пользователя </t>
+  </si>
+  <si>
+    <t>Отрицательно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,6 +142,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -176,10 +201,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -193,10 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,16 +230,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -227,14 +252,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -253,6 +284,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3942522</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F762A896-9F32-4CD4-BE45-154CC4FB2711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2393673"/>
+          <a:ext cx="8423413" cy="4174436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,7 +601,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,8 +689,8 @@
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
+      <c r="C6" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -634,11 +714,19 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -707,5 +795,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>